--- a/BudgetVisualisatie.xlsx
+++ b/BudgetVisualisatie.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66eafa693a772550/Bureaublad/P^0O2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66eafa693a772550/Bureaublad/Po2_Team4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{67968C39-97D7-4B42-A9B9-E5B7C1DCB580}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0F93474A-4E7A-4543-BA55-9C71C5867C17}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{67968C39-97D7-4B42-A9B9-E5B7C1DCB580}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ECE1F642-C102-4CFE-B61D-DF7BEDC42D2A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9DC6A2B4-5932-4782-96E9-E79D90AB7CF3}"/>
+    <workbookView minimized="1" xWindow="2550" yWindow="2550" windowWidth="15375" windowHeight="7875" xr2:uid="{9DC6A2B4-5932-4782-96E9-E79D90AB7CF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -117,62 +117,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nl-NL"/>
-              <a:t>Budget</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -202,6 +147,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0415-4806-BB86-570A26783BCF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -225,6 +175,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0415-4806-BB86-570A26783BCF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -276,6 +231,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0415-4806-BB86-570A26783BCF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -299,6 +259,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0415-4806-BB86-570A26783BCF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -309,32 +274,6 @@
                   <c:y val="-0.11369440799066784"/>
                 </c:manualLayout>
               </c:layout>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="nl-NL"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -342,14 +281,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="5.5888888888888877E-2"/>
-                      <c:h val="7.8634441528142307E-2"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-50F7-4C96-99B1-111B2940195F}"/>
                 </c:ext>
